--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Vim-Cd44.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Vim-Cd44.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1231.30837342519</v>
+        <v>1257.917155</v>
       </c>
       <c r="H2">
-        <v>1231.30837342519</v>
+        <v>3773.751465</v>
       </c>
       <c r="I2">
-        <v>0.2077658876812661</v>
+        <v>0.2062158304094556</v>
       </c>
       <c r="J2">
-        <v>0.2077658876812661</v>
+        <v>0.2062158304094557</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.3412814097662</v>
+        <v>22.34478233333333</v>
       </c>
       <c r="N2">
-        <v>22.3412814097662</v>
+        <v>67.034347</v>
       </c>
       <c r="O2">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="P2">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="Q2">
-        <v>27509.00687289366</v>
+        <v>28107.88502184092</v>
       </c>
       <c r="R2">
-        <v>27509.00687289366</v>
+        <v>252970.9651965683</v>
       </c>
       <c r="S2">
-        <v>0.00704442153512919</v>
+        <v>0.006528555652422946</v>
       </c>
       <c r="T2">
-        <v>0.00704442153512919</v>
+        <v>0.006528555652422947</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1231.30837342519</v>
+        <v>1257.917155</v>
       </c>
       <c r="H3">
-        <v>1231.30837342519</v>
+        <v>3773.751465</v>
       </c>
       <c r="I3">
-        <v>0.2077658876812661</v>
+        <v>0.2062158304094556</v>
       </c>
       <c r="J3">
-        <v>0.2077658876812661</v>
+        <v>0.2062158304094557</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>91.7205939642397</v>
+        <v>92.44713066666667</v>
       </c>
       <c r="N3">
-        <v>91.7205939642397</v>
+        <v>277.341392</v>
       </c>
       <c r="O3">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="P3">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="Q3">
-        <v>112936.3353637003</v>
+        <v>116290.8315961266</v>
       </c>
       <c r="R3">
-        <v>112936.3353637003</v>
+        <v>1046617.484365139</v>
       </c>
       <c r="S3">
-        <v>0.0289203880245691</v>
+        <v>0.02701061162559618</v>
       </c>
       <c r="T3">
-        <v>0.0289203880245691</v>
+        <v>0.02701061162559617</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1231.30837342519</v>
+        <v>1257.917155</v>
       </c>
       <c r="H4">
-        <v>1231.30837342519</v>
+        <v>3773.751465</v>
       </c>
       <c r="I4">
-        <v>0.2077658876812661</v>
+        <v>0.2062158304094556</v>
       </c>
       <c r="J4">
-        <v>0.2077658876812661</v>
+        <v>0.2062158304094557</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>243.844013415007</v>
+        <v>243.96462</v>
       </c>
       <c r="N4">
-        <v>243.844013415007</v>
+        <v>731.89386</v>
       </c>
       <c r="O4">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="P4">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="Q4">
-        <v>300247.1755275025</v>
+        <v>306887.2807110561</v>
       </c>
       <c r="R4">
-        <v>300247.1755275025</v>
+        <v>2761985.526399505</v>
       </c>
       <c r="S4">
-        <v>0.07688636957780402</v>
+        <v>0.07128002301084022</v>
       </c>
       <c r="T4">
-        <v>0.07688636957780402</v>
+        <v>0.07128002301084023</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1231.30837342519</v>
+        <v>1257.917155</v>
       </c>
       <c r="H5">
-        <v>1231.30837342519</v>
+        <v>3773.751465</v>
       </c>
       <c r="I5">
-        <v>0.2077658876812661</v>
+        <v>0.2062158304094556</v>
       </c>
       <c r="J5">
-        <v>0.2077658876812661</v>
+        <v>0.2062158304094557</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>242.803187262864</v>
+        <v>281.5837096666667</v>
       </c>
       <c r="N5">
-        <v>242.803187262864</v>
+        <v>844.751129</v>
       </c>
       <c r="O5">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="P5">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="Q5">
-        <v>298965.5975710889</v>
+        <v>354208.9789582393</v>
       </c>
       <c r="R5">
-        <v>298965.5975710889</v>
+        <v>3187880.810624154</v>
       </c>
       <c r="S5">
-        <v>0.07655818705210177</v>
+        <v>0.08227132813158626</v>
       </c>
       <c r="T5">
-        <v>0.07655818705210177</v>
+        <v>0.08227132813158626</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1231.30837342519</v>
+        <v>1257.917155</v>
       </c>
       <c r="H6">
-        <v>1231.30837342519</v>
+        <v>3773.751465</v>
       </c>
       <c r="I6">
-        <v>0.2077658876812661</v>
+        <v>0.2062158304094556</v>
       </c>
       <c r="J6">
-        <v>0.2077658876812661</v>
+        <v>0.2062158304094557</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.2174434486227</v>
+        <v>65.45872566666667</v>
       </c>
       <c r="N6">
-        <v>58.2174434486227</v>
+        <v>196.376177</v>
       </c>
       <c r="O6">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347572</v>
       </c>
       <c r="P6">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347571</v>
       </c>
       <c r="Q6">
-        <v>71683.62559769661</v>
+        <v>82341.6539605388</v>
       </c>
       <c r="R6">
-        <v>71683.62559769661</v>
+        <v>741074.8856448493</v>
       </c>
       <c r="S6">
-        <v>0.01835652149166207</v>
+        <v>0.01912531198901004</v>
       </c>
       <c r="T6">
-        <v>0.01835652149166207</v>
+        <v>0.01912531198901004</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1249.59465480042</v>
+        <v>1250.298177</v>
       </c>
       <c r="H7">
-        <v>1249.59465480042</v>
+        <v>3750.894531</v>
       </c>
       <c r="I7">
-        <v>0.2108514392492665</v>
+        <v>0.2049668182078999</v>
       </c>
       <c r="J7">
-        <v>0.2108514392492665</v>
+        <v>0.2049668182078999</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.3412814097662</v>
+        <v>22.34478233333333</v>
       </c>
       <c r="N7">
-        <v>22.3412814097662</v>
+        <v>67.034347</v>
       </c>
       <c r="O7">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="P7">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="Q7">
-        <v>27917.54583103583</v>
+        <v>27937.64061682847</v>
       </c>
       <c r="R7">
-        <v>27917.54583103583</v>
+        <v>251438.7655514563</v>
       </c>
       <c r="S7">
-        <v>0.007149038930005476</v>
+        <v>0.006489013364848702</v>
       </c>
       <c r="T7">
-        <v>0.007149038930005476</v>
+        <v>0.006489013364848702</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1249.59465480042</v>
+        <v>1250.298177</v>
       </c>
       <c r="H8">
-        <v>1249.59465480042</v>
+        <v>3750.894531</v>
       </c>
       <c r="I8">
-        <v>0.2108514392492665</v>
+        <v>0.2049668182078999</v>
       </c>
       <c r="J8">
-        <v>0.2108514392492665</v>
+        <v>0.2049668182078999</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>91.7205939642397</v>
+        <v>92.44713066666667</v>
       </c>
       <c r="N8">
-        <v>91.7205939642397</v>
+        <v>277.341392</v>
       </c>
       <c r="O8">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="P8">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="Q8">
-        <v>114613.5639528336</v>
+        <v>115586.4789414141</v>
       </c>
       <c r="R8">
-        <v>114613.5639528336</v>
+        <v>1040278.310472727</v>
       </c>
       <c r="S8">
-        <v>0.02934988754257122</v>
+        <v>0.02684701320822508</v>
       </c>
       <c r="T8">
-        <v>0.02934988754257122</v>
+        <v>0.02684701320822507</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1249.59465480042</v>
+        <v>1250.298177</v>
       </c>
       <c r="H9">
-        <v>1249.59465480042</v>
+        <v>3750.894531</v>
       </c>
       <c r="I9">
-        <v>0.2108514392492665</v>
+        <v>0.2049668182078999</v>
       </c>
       <c r="J9">
-        <v>0.2108514392492665</v>
+        <v>0.2049668182078999</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>243.844013415007</v>
+        <v>243.96462</v>
       </c>
       <c r="N9">
-        <v>243.844013415007</v>
+        <v>731.89386</v>
       </c>
       <c r="O9">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="P9">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="Q9">
-        <v>304706.1757684746</v>
+        <v>305028.5196384978</v>
       </c>
       <c r="R9">
-        <v>304706.1757684746</v>
+        <v>2745256.67674648</v>
       </c>
       <c r="S9">
-        <v>0.07802821659059464</v>
+        <v>0.07084829272955706</v>
       </c>
       <c r="T9">
-        <v>0.07802821659059464</v>
+        <v>0.07084829272955706</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1249.59465480042</v>
+        <v>1250.298177</v>
       </c>
       <c r="H10">
-        <v>1249.59465480042</v>
+        <v>3750.894531</v>
       </c>
       <c r="I10">
-        <v>0.2108514392492665</v>
+        <v>0.2049668182078999</v>
       </c>
       <c r="J10">
-        <v>0.2108514392492665</v>
+        <v>0.2049668182078999</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>242.803187262864</v>
+        <v>281.5837096666667</v>
       </c>
       <c r="N10">
-        <v>242.803187262864</v>
+        <v>844.751129</v>
       </c>
       <c r="O10">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="P10">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="Q10">
-        <v>303405.5649721802</v>
+        <v>352063.5988691307</v>
       </c>
       <c r="R10">
-        <v>303405.5649721802</v>
+        <v>3168572.389822176</v>
       </c>
       <c r="S10">
-        <v>0.0776951601940271</v>
+        <v>0.08177302549172338</v>
       </c>
       <c r="T10">
-        <v>0.0776951601940271</v>
+        <v>0.08177302549172337</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1249.59465480042</v>
+        <v>1250.298177</v>
       </c>
       <c r="H11">
-        <v>1249.59465480042</v>
+        <v>3750.894531</v>
       </c>
       <c r="I11">
-        <v>0.2108514392492665</v>
+        <v>0.2049668182078999</v>
       </c>
       <c r="J11">
-        <v>0.2108514392492665</v>
+        <v>0.2049668182078999</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>58.2174434486227</v>
+        <v>65.45872566666667</v>
       </c>
       <c r="N11">
-        <v>58.2174434486227</v>
+        <v>196.376177</v>
       </c>
       <c r="O11">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347572</v>
       </c>
       <c r="P11">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347571</v>
       </c>
       <c r="Q11">
-        <v>72748.20614954465</v>
+        <v>81842.92536977645</v>
       </c>
       <c r="R11">
-        <v>72748.20614954465</v>
+        <v>736586.3283279882</v>
       </c>
       <c r="S11">
-        <v>0.01862913599206803</v>
+        <v>0.01900947341354566</v>
       </c>
       <c r="T11">
-        <v>0.01862913599206803</v>
+        <v>0.01900947341354566</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1511.9863533164</v>
+        <v>1513.642008666667</v>
       </c>
       <c r="H12">
-        <v>1511.9863533164</v>
+        <v>4540.926026</v>
       </c>
       <c r="I12">
-        <v>0.25512633036425</v>
+        <v>0.2481379179218151</v>
       </c>
       <c r="J12">
-        <v>0.25512633036425</v>
+        <v>0.2481379179218151</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>22.3412814097662</v>
+        <v>22.34478233333333</v>
       </c>
       <c r="N12">
-        <v>22.3412814097662</v>
+        <v>67.034347</v>
       </c>
       <c r="O12">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="P12">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="Q12">
-        <v>33779.71260716788</v>
+        <v>33822.00121424611</v>
       </c>
       <c r="R12">
-        <v>33779.71260716788</v>
+        <v>304398.010928215</v>
       </c>
       <c r="S12">
-        <v>0.008650204496291131</v>
+        <v>0.007855760653352079</v>
       </c>
       <c r="T12">
-        <v>0.008650204496291131</v>
+        <v>0.007855760653352079</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1511.9863533164</v>
+        <v>1513.642008666667</v>
       </c>
       <c r="H13">
-        <v>1511.9863533164</v>
+        <v>4540.926026</v>
       </c>
       <c r="I13">
-        <v>0.25512633036425</v>
+        <v>0.2481379179218151</v>
       </c>
       <c r="J13">
-        <v>0.25512633036425</v>
+        <v>0.2481379179218151</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>91.7205939642397</v>
+        <v>92.44713066666667</v>
       </c>
       <c r="N13">
-        <v>91.7205939642397</v>
+        <v>277.341392</v>
       </c>
       <c r="O13">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="P13">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="Q13">
-        <v>138680.286392005</v>
+        <v>139931.8605577631</v>
       </c>
       <c r="R13">
-        <v>138680.286392005</v>
+        <v>1259386.745019868</v>
       </c>
       <c r="S13">
-        <v>0.03551281950932028</v>
+        <v>0.03250166060123619</v>
       </c>
       <c r="T13">
-        <v>0.03551281950932028</v>
+        <v>0.03250166060123619</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1511.9863533164</v>
+        <v>1513.642008666667</v>
       </c>
       <c r="H14">
-        <v>1511.9863533164</v>
+        <v>4540.926026</v>
       </c>
       <c r="I14">
-        <v>0.25512633036425</v>
+        <v>0.2481379179218151</v>
       </c>
       <c r="J14">
-        <v>0.25512633036425</v>
+        <v>0.2481379179218151</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>243.844013415007</v>
+        <v>243.96462</v>
       </c>
       <c r="N14">
-        <v>243.844013415007</v>
+        <v>731.89386</v>
       </c>
       <c r="O14">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="P14">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="Q14">
-        <v>368688.8206213918</v>
+        <v>369275.0974604</v>
       </c>
       <c r="R14">
-        <v>368688.8206213918</v>
+        <v>3323475.8771436</v>
       </c>
       <c r="S14">
-        <v>0.09441269471294138</v>
+        <v>0.0857707018137728</v>
       </c>
       <c r="T14">
-        <v>0.09441269471294138</v>
+        <v>0.0857707018137728</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1511.9863533164</v>
+        <v>1513.642008666667</v>
       </c>
       <c r="H15">
-        <v>1511.9863533164</v>
+        <v>4540.926026</v>
       </c>
       <c r="I15">
-        <v>0.25512633036425</v>
+        <v>0.2481379179218151</v>
       </c>
       <c r="J15">
-        <v>0.25512633036425</v>
+        <v>0.2481379179218151</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>242.803187262864</v>
+        <v>281.5837096666667</v>
       </c>
       <c r="N15">
-        <v>242.803187262864</v>
+        <v>844.751129</v>
       </c>
       <c r="O15">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="P15">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="Q15">
-        <v>367115.1056831767</v>
+        <v>426216.9319076648</v>
       </c>
       <c r="R15">
-        <v>367115.1056831767</v>
+        <v>3835952.387168983</v>
       </c>
       <c r="S15">
-        <v>0.09400970265102727</v>
+        <v>0.09899645447538928</v>
       </c>
       <c r="T15">
-        <v>0.09400970265102727</v>
+        <v>0.09899645447538927</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1511.9863533164</v>
+        <v>1513.642008666667</v>
       </c>
       <c r="H16">
-        <v>1511.9863533164</v>
+        <v>4540.926026</v>
       </c>
       <c r="I16">
-        <v>0.25512633036425</v>
+        <v>0.2481379179218151</v>
       </c>
       <c r="J16">
-        <v>0.25512633036425</v>
+        <v>0.2481379179218151</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>58.2174434486227</v>
+        <v>65.45872566666667</v>
       </c>
       <c r="N16">
-        <v>58.2174434486227</v>
+        <v>196.376177</v>
       </c>
       <c r="O16">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347572</v>
       </c>
       <c r="P16">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347571</v>
       </c>
       <c r="Q16">
-        <v>88023.98001928678</v>
+        <v>99081.07700285362</v>
       </c>
       <c r="R16">
-        <v>88023.98001928678</v>
+        <v>891729.6930256827</v>
       </c>
       <c r="S16">
-        <v>0.02254090899466992</v>
+        <v>0.02301334037806475</v>
       </c>
       <c r="T16">
-        <v>0.02254090899466992</v>
+        <v>0.02301334037806475</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1260.08344311535</v>
+        <v>1325.491048333333</v>
       </c>
       <c r="H17">
-        <v>1260.08344311535</v>
+        <v>3976.473145</v>
       </c>
       <c r="I17">
-        <v>0.2126212740542474</v>
+        <v>0.2172935126497724</v>
       </c>
       <c r="J17">
-        <v>0.2126212740542474</v>
+        <v>0.2172935126497724</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>22.3412814097662</v>
+        <v>22.34478233333333</v>
       </c>
       <c r="N17">
-        <v>22.3412814097662</v>
+        <v>67.034347</v>
       </c>
       <c r="O17">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="P17">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="Q17">
-        <v>28151.87880242716</v>
+        <v>29617.80895979014</v>
       </c>
       <c r="R17">
-        <v>28151.87880242716</v>
+        <v>266560.2806381113</v>
       </c>
       <c r="S17">
-        <v>0.007209046193724125</v>
+        <v>0.006879262311859161</v>
       </c>
       <c r="T17">
-        <v>0.007209046193724125</v>
+        <v>0.006879262311859161</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1260.08344311535</v>
+        <v>1325.491048333333</v>
       </c>
       <c r="H18">
-        <v>1260.08344311535</v>
+        <v>3976.473145</v>
       </c>
       <c r="I18">
-        <v>0.2126212740542474</v>
+        <v>0.2172935126497724</v>
       </c>
       <c r="J18">
-        <v>0.2126212740542474</v>
+        <v>0.2172935126497724</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>91.7205939642397</v>
+        <v>92.44713066666667</v>
       </c>
       <c r="N18">
-        <v>91.7205939642397</v>
+        <v>277.341392</v>
       </c>
       <c r="O18">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="P18">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="Q18">
-        <v>115575.6018470441</v>
+        <v>122537.8441427686</v>
       </c>
       <c r="R18">
-        <v>115575.6018470441</v>
+        <v>1102840.597284918</v>
       </c>
       <c r="S18">
-        <v>0.02959624323585018</v>
+        <v>0.02846159127207069</v>
       </c>
       <c r="T18">
-        <v>0.02959624323585018</v>
+        <v>0.02846159127207069</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1260.08344311535</v>
+        <v>1325.491048333333</v>
       </c>
       <c r="H19">
-        <v>1260.08344311535</v>
+        <v>3976.473145</v>
       </c>
       <c r="I19">
-        <v>0.2126212740542474</v>
+        <v>0.2172935126497724</v>
       </c>
       <c r="J19">
-        <v>0.2126212740542474</v>
+        <v>0.2172935126497724</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>243.844013415007</v>
+        <v>243.96462</v>
       </c>
       <c r="N19">
-        <v>243.844013415007</v>
+        <v>731.89386</v>
       </c>
       <c r="O19">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="P19">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="Q19">
-        <v>307263.8040070476</v>
+        <v>323372.9199200433</v>
       </c>
       <c r="R19">
-        <v>307263.8040070476</v>
+        <v>2910356.27928039</v>
       </c>
       <c r="S19">
-        <v>0.07868316613224501</v>
+        <v>0.07510910559595853</v>
       </c>
       <c r="T19">
-        <v>0.07868316613224501</v>
+        <v>0.07510910559595853</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1260.08344311535</v>
+        <v>1325.491048333333</v>
       </c>
       <c r="H20">
-        <v>1260.08344311535</v>
+        <v>3976.473145</v>
       </c>
       <c r="I20">
-        <v>0.2126212740542474</v>
+        <v>0.2172935126497724</v>
       </c>
       <c r="J20">
-        <v>0.2126212740542474</v>
+        <v>0.2172935126497724</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>242.803187262864</v>
+        <v>281.5837096666667</v>
       </c>
       <c r="N20">
-        <v>242.803187262864</v>
+        <v>844.751129</v>
       </c>
       <c r="O20">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="P20">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="Q20">
-        <v>305952.2762055708</v>
+        <v>373236.6865196589</v>
       </c>
       <c r="R20">
-        <v>305952.2762055708</v>
+        <v>3359130.178676931</v>
       </c>
       <c r="S20">
-        <v>0.07834731414270088</v>
+        <v>0.08669085125316695</v>
       </c>
       <c r="T20">
-        <v>0.07834731414270088</v>
+        <v>0.08669085125316693</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1260.08344311535</v>
+        <v>1325.491048333333</v>
       </c>
       <c r="H21">
-        <v>1260.08344311535</v>
+        <v>3976.473145</v>
       </c>
       <c r="I21">
-        <v>0.2126212740542474</v>
+        <v>0.2172935126497724</v>
       </c>
       <c r="J21">
-        <v>0.2126212740542474</v>
+        <v>0.2172935126497724</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>58.2174434486227</v>
+        <v>65.45872566666667</v>
       </c>
       <c r="N21">
-        <v>58.2174434486227</v>
+        <v>196.376177</v>
       </c>
       <c r="O21">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347572</v>
       </c>
       <c r="P21">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347571</v>
       </c>
       <c r="Q21">
-        <v>73358.83659011367</v>
+        <v>86764.95490647407</v>
       </c>
       <c r="R21">
-        <v>73358.83659011367</v>
+        <v>780884.5941582667</v>
       </c>
       <c r="S21">
-        <v>0.01878550434972723</v>
+        <v>0.02015270221671711</v>
       </c>
       <c r="T21">
-        <v>0.01878550434972723</v>
+        <v>0.02015270221671711</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>673.449395886089</v>
+        <v>752.6544696666666</v>
       </c>
       <c r="H22">
-        <v>673.449395886089</v>
+        <v>2257.963409</v>
       </c>
       <c r="I22">
-        <v>0.11363506865097</v>
+        <v>0.123385920811057</v>
       </c>
       <c r="J22">
-        <v>0.11363506865097</v>
+        <v>0.123385920811057</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>22.3412814097662</v>
+        <v>22.34478233333333</v>
       </c>
       <c r="N22">
-        <v>22.3412814097662</v>
+        <v>67.034347</v>
       </c>
       <c r="O22">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="P22">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="Q22">
-        <v>15045.72246872816</v>
+        <v>16817.9002969121</v>
       </c>
       <c r="R22">
-        <v>15045.72246872816</v>
+        <v>151361.1026722089</v>
       </c>
       <c r="S22">
-        <v>0.003852862150204439</v>
+        <v>0.003906256125637869</v>
       </c>
       <c r="T22">
-        <v>0.003852862150204439</v>
+        <v>0.003906256125637869</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>673.449395886089</v>
+        <v>752.6544696666666</v>
       </c>
       <c r="H23">
-        <v>673.449395886089</v>
+        <v>2257.963409</v>
       </c>
       <c r="I23">
-        <v>0.11363506865097</v>
+        <v>0.123385920811057</v>
       </c>
       <c r="J23">
-        <v>0.11363506865097</v>
+        <v>0.123385920811057</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>91.7205939642397</v>
+        <v>92.44713066666667</v>
       </c>
       <c r="N23">
-        <v>91.7205939642397</v>
+        <v>277.341392</v>
       </c>
       <c r="O23">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="P23">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="Q23">
-        <v>61769.17859553048</v>
+        <v>69580.74610412504</v>
       </c>
       <c r="R23">
-        <v>61769.17859553048</v>
+        <v>626226.7149371253</v>
       </c>
       <c r="S23">
-        <v>0.01581766051810307</v>
+        <v>0.01616136443296649</v>
       </c>
       <c r="T23">
-        <v>0.01581766051810307</v>
+        <v>0.01616136443296648</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>673.449395886089</v>
+        <v>752.6544696666666</v>
       </c>
       <c r="H24">
-        <v>673.449395886089</v>
+        <v>2257.963409</v>
       </c>
       <c r="I24">
-        <v>0.11363506865097</v>
+        <v>0.123385920811057</v>
       </c>
       <c r="J24">
-        <v>0.11363506865097</v>
+        <v>0.123385920811057</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>243.844013415007</v>
+        <v>243.96462</v>
       </c>
       <c r="N24">
-        <v>243.844013415007</v>
+        <v>731.89386</v>
       </c>
       <c r="O24">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="P24">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="Q24">
-        <v>164216.6035247758</v>
+        <v>183621.0616835298</v>
       </c>
       <c r="R24">
-        <v>164216.6035247758</v>
+        <v>1652589.555151769</v>
       </c>
       <c r="S24">
-        <v>0.04205208074725449</v>
+        <v>0.04264925373169885</v>
       </c>
       <c r="T24">
-        <v>0.04205208074725449</v>
+        <v>0.04264925373169885</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>673.449395886089</v>
+        <v>752.6544696666666</v>
       </c>
       <c r="H25">
-        <v>673.449395886089</v>
+        <v>2257.963409</v>
       </c>
       <c r="I25">
-        <v>0.11363506865097</v>
+        <v>0.123385920811057</v>
       </c>
       <c r="J25">
-        <v>0.11363506865097</v>
+        <v>0.123385920811057</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>242.803187262864</v>
+        <v>281.5837096666667</v>
       </c>
       <c r="N25">
-        <v>242.803187262864</v>
+        <v>844.751129</v>
       </c>
       <c r="O25">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="P25">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="Q25">
-        <v>163515.6597813927</v>
+        <v>211935.2376659376</v>
       </c>
       <c r="R25">
-        <v>163515.6597813927</v>
+        <v>1907417.138993439</v>
       </c>
       <c r="S25">
-        <v>0.04187258523788851</v>
+        <v>0.04922572412461565</v>
       </c>
       <c r="T25">
-        <v>0.04187258523788851</v>
+        <v>0.04922572412461564</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>673.449395886089</v>
+        <v>752.6544696666666</v>
       </c>
       <c r="H26">
-        <v>673.449395886089</v>
+        <v>2257.963409</v>
       </c>
       <c r="I26">
-        <v>0.11363506865097</v>
+        <v>0.123385920811057</v>
       </c>
       <c r="J26">
-        <v>0.11363506865097</v>
+        <v>0.123385920811057</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>58.2174434486227</v>
+        <v>65.45872566666667</v>
       </c>
       <c r="N26">
-        <v>58.2174434486227</v>
+        <v>196.376177</v>
       </c>
       <c r="O26">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347572</v>
       </c>
       <c r="P26">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347571</v>
       </c>
       <c r="Q26">
-        <v>39206.5021205075</v>
+        <v>49267.80245170082</v>
       </c>
       <c r="R26">
-        <v>39206.5021205075</v>
+        <v>443410.2220653074</v>
       </c>
       <c r="S26">
-        <v>0.01003987999751949</v>
+        <v>0.01144332239613816</v>
       </c>
       <c r="T26">
-        <v>0.01003987999751949</v>
+        <v>0.01144332239613815</v>
       </c>
     </row>
   </sheetData>
